--- a/biology/Zoologie/Aeolosaurini/Aeolosaurini.xlsx
+++ b/biology/Zoologie/Aeolosaurini/Aeolosaurini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aeolosaurini appartiennent aux Aeolosauridae, une famille éteinte de dinosaures titanosauriens vivant en Argentine et au Brésil durant le Crétacé supérieur.
-En 2011, Thomas Holtz a classé les genres Adamantisaurus, Gondwanatitan, Muyelensaurus, Aeolosaurus, Panamericansaurus, Pitekunsaurus et Rinconsaurus parmi les Aeolosauridae[1]. En 2011, Rodrigo M. Santucci et Antonio C. de Arruda-Campos, à la suite de leur analyse cladistique, considérèrent que l'Aeolosaurus, le Gondwanatitan, le Maxakalisaurus, le Panamericansaurus et le Rinconsaurus comme étant des  aeolosaurides[2].
+En 2011, Thomas Holtz a classé les genres Adamantisaurus, Gondwanatitan, Muyelensaurus, Aeolosaurus, Panamericansaurus, Pitekunsaurus et Rinconsaurus parmi les Aeolosauridae. En 2011, Rodrigo M. Santucci et Antonio C. de Arruda-Campos, à la suite de leur analyse cladistique, considérèrent que l'Aeolosaurus, le Gondwanatitan, le Maxakalisaurus, le Panamericansaurus et le Rinconsaurus comme étant des  aeolosaurides.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le groupe des Aeolosaurini a été défini par Franco-Rosas, Salgado, Rosas and Carvalho, en 2004 comme étant le clade de base qui correspond le mieux à celui pouvant contenir Aeolosaurus rionegrinus et Gondwanatitan faustoi, mais pas pour Saltasaurus loricatus et Opisthocoelicaudia skarzynskii. Le cladogramme ci-dessous montre les relations phylogéniques des Aeolosaurini selon Santucci et Arruda-Campos[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le groupe des Aeolosaurini a été défini par Franco-Rosas, Salgado, Rosas and Carvalho, en 2004 comme étant le clade de base qui correspond le mieux à celui pouvant contenir Aeolosaurus rionegrinus et Gondwanatitan faustoi, mais pas pour Saltasaurus loricatus et Opisthocoelicaudia skarzynskii. Le cladogramme ci-dessous montre les relations phylogéniques des Aeolosaurini selon Santucci et Arruda-Campos.
 </t>
         </is>
       </c>
